--- a/templates/flat_files_01/support/mapping_spec_flat_files_01.xlsx
+++ b/templates/flat_files_01/support/mapping_spec_flat_files_01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Projects\Development\projects\postgres_nexus_load\templates\flat_files_01\support\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Projects\Development\projects\flat_file_loader\templates\flat_files_01\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Fields &amp; Mappings" sheetId="1" r:id="rId1"/>
-    <sheet name="Reference" sheetId="7" r:id="rId2"/>
+    <sheet name="Reference" sheetId="7" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Fields &amp; Mappings'!$A$1:$P$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Fields &amp; Mappings'!$A$1:$P$102</definedName>
     <definedName name="Actions">Reference!$A$2:$A$1048576</definedName>
     <definedName name="Status">Reference!$B$2:$B$1048576</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1189">
   <si>
     <t>Action</t>
   </si>
@@ -72,9 +72,6 @@
     <t>General Notes</t>
   </si>
   <si>
-    <t>ETL Notes</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
@@ -3474,12 +3471,6 @@
     <t>ERRORTBL</t>
   </si>
   <si>
-    <t>Default ETL Value</t>
-  </si>
-  <si>
-    <t>ETL Load Method</t>
-  </si>
-  <si>
     <t>Char Encoding</t>
   </si>
   <si>
@@ -3531,15 +3522,9 @@
     <t>stg_schema</t>
   </si>
   <si>
-    <t>stg_flat_file_01</t>
-  </si>
-  <si>
     <t>tgt_schema</t>
   </si>
   <si>
-    <t>flat_file_01</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -3568,6 +3553,45 @@
   </si>
   <si>
     <t>Upsert based on PK</t>
+  </si>
+  <si>
+    <t>System Generated</t>
+  </si>
+  <si>
+    <t>tgt_schema.some_other_table.float_field_01</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>modify_datetime</t>
+  </si>
+  <si>
+    <t>my_table</t>
+  </si>
+  <si>
+    <t>stg_my_table</t>
+  </si>
+  <si>
+    <t>integer_field_01</t>
+  </si>
+  <si>
+    <t>Values are in PDT timezone</t>
+  </si>
+  <si>
+    <t>Transformation Notes</t>
+  </si>
+  <si>
+    <t>Default Load Value</t>
+  </si>
+  <si>
+    <t>Load Method</t>
+  </si>
+  <si>
+    <t>Convert all numbers to positive values</t>
   </si>
 </sst>
 </file>
@@ -4242,7 +4266,77 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4574,7 +4668,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -4585,20 +4679,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="15" customWidth="1"/>
+    <col min="3" max="4" width="28.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="50" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44" style="17" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="17" customWidth="1"/>
+    <col min="11" max="12" width="28.28515625" style="15" customWidth="1"/>
     <col min="13" max="13" width="62.140625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="24" style="18" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="63" style="18" customWidth="1"/>
     <col min="16" max="16" width="52.140625" style="19" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" style="19" bestFit="1" customWidth="1"/>
@@ -4610,28 +4702,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>13</v>
@@ -4646,16 +4738,16 @@
         <v>14</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>1149</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>1150</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -4663,10 +4755,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
@@ -4681,7 +4773,7 @@
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="23" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="Q2" s="23"/>
     </row>
@@ -4690,29 +4782,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="28" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="14"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -4725,29 +4817,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="28" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="14"/>
       <c r="I4" s="31"/>
       <c r="J4" s="11" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -4760,29 +4852,29 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1164</v>
+        <v>1183</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="10" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="F5" s="28" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G5" s="32"/>
       <c r="H5" s="14"/>
       <c r="I5" s="31"/>
       <c r="J5" s="11" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>1164</v>
+        <v>1183</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -4795,29 +4887,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>1161</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>1165</v>
-      </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="28" t="s">
-        <v>1155</v>
+      <c r="F6" s="10" t="s">
+        <v>1151</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="11" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>1165</v>
+        <v>1153</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>1161</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -4830,31 +4922,29 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>1174</v>
-      </c>
+        <v>1162</v>
+      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="28" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="14"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -4867,31 +4957,31 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="14"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>1156</v>
+        <v>1176</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -4899,101 +4989,103 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="23" t="s">
-        <v>1153</v>
-      </c>
-      <c r="Q9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="28" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>1172</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>1161</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>1163</v>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="B10" s="22" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="23" t="s">
+        <v>1150</v>
+      </c>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1168</v>
+        <v>1182</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="28" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G11" s="32"/>
+        <v>1171</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>811</v>
+      </c>
       <c r="H11" s="14"/>
-      <c r="I11" s="31"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="M11" s="12"/>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
+      <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
@@ -5003,35 +5095,35 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1168</v>
+        <v>1182</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="10" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G12" s="7"/>
+      <c r="F12" s="28" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G12" s="32"/>
       <c r="H12" s="14"/>
       <c r="I12" s="31"/>
       <c r="J12" s="11" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="M12" s="12"/>
-      <c r="N12" s="35">
-        <v>1</v>
-      </c>
-      <c r="O12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12" t="s">
+        <v>1188</v>
+      </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
@@ -5040,32 +5132,34 @@
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>1165</v>
+        <v>1182</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>1183</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="28" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>1155</v>
+      </c>
+      <c r="G13" s="32"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="11" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>1161</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>1165</v>
+        <v>1158</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>1183</v>
       </c>
       <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
       <c r="O13" s="12"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
@@ -5075,93 +5169,101 @@
         <v>2</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>1173</v>
+        <v>1182</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>1161</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="28" t="s">
-        <v>1179</v>
+      <c r="F14" s="10" t="s">
+        <v>1151</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="11" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="K14" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L14" s="33" t="s">
         <v>1161</v>
       </c>
-      <c r="L14" s="29" t="s">
-        <v>1173</v>
-      </c>
       <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="N14" s="35">
+        <v>1</v>
+      </c>
       <c r="O14" s="12"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="23" t="s">
-        <v>1180</v>
-      </c>
-      <c r="Q15" s="23"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>1163</v>
+        <v>1182</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>1168</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="28" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="14" t="s">
-        <v>1171</v>
-      </c>
+        <v>1174</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="K16" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L16" s="29" t="s">
         <v>1168</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>1163</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
@@ -5174,29 +5276,29 @@
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>1162</v>
+        <v>1182</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>1180</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="28" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G17" s="32"/>
+        <v>1173</v>
+      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="31"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>1162</v>
+        <v>1158</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>1170</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -5204,200 +5306,292 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="11" t="s">
-        <v>1172</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+    <row r="18" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1165</v>
+        <v>1181</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>1160</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="28" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="14"/>
+        <v>1171</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>1166</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>1165</v>
+        <v>1182</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>1160</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="Q19" s="10" t="s">
+        <v>1178</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>1173</v>
+        <v>1181</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>1159</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="28" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G20" s="7"/>
+        <v>1172</v>
+      </c>
+      <c r="G20" s="32"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="31" t="s">
+        <v>1177</v>
+      </c>
       <c r="J20" s="11" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>1173</v>
+        <v>1182</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>1159</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="Q20" s="10" t="s">
+        <v>1179</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>1183</v>
+      </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="28" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G21" s="32"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>1183</v>
+      </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="Q21" s="10" t="s">
+        <v>1179</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="29"/>
+      <c r="A22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>1161</v>
+      </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="28"/>
+      <c r="F22" s="10" t="s">
+        <v>1151</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>1161</v>
+      </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
+      <c r="Q22" s="10" t="s">
+        <v>1179</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>1162</v>
+      </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28" t="s">
+        <v>1173</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="14"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="12"/>
+      <c r="J23" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>1184</v>
+      </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="Q23" s="10" t="s">
+        <v>1179</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>1168</v>
+      </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28" t="s">
+        <v>1174</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="14"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="J24" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>1168</v>
+      </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="Q24" s="10" t="s">
+        <v>1179</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>1180</v>
+      </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28" t="s">
+        <v>1173</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="14"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="J25" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>1180</v>
+      </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
@@ -5453,8 +5647,8 @@
       <c r="H28" s="14"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="10"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -5472,8 +5666,8 @@
       <c r="H29" s="14"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="10"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -5491,8 +5685,8 @@
       <c r="H30" s="14"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="10"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
@@ -5510,8 +5704,8 @@
       <c r="H31" s="14"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="10"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
@@ -6791,10 +6985,105 @@
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
     </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P98"/>
+  <autoFilter ref="A1:P102"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A103">
       <formula1>Actions</formula1>
     </dataValidation>
   </dataValidations>
@@ -6804,7 +7093,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="36" id="{02D57A18-666D-4CB5-A36D-A46CD41B773E}">
+          <x14:cfRule type="expression" priority="47" id="{02D57A18-666D-4CB5-A36D-A46CD41B773E}">
             <xm:f>MATCH(D2,Reference!$C:$C,0)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -6814,10 +7103,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D2:D4 D18:D20 D26:D1048576 D6:D12 D14:D16 D22:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{F4442F8E-2F88-4B2D-AF8F-BE91D7CD3518}">
+          <x14:cfRule type="expression" priority="14" id="{F4442F8E-2F88-4B2D-AF8F-BE91D7CD3518}">
             <xm:f>MATCH(L3,Reference!$C:$C,0)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -6830,8 +7119,8 @@
           <xm:sqref>L3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{80FDB44A-C70B-4D41-8619-74119CBEEBDE}">
-            <xm:f>MATCH(L10,Reference!$C:$C,0)&gt;0</xm:f>
+          <x14:cfRule type="expression" priority="13" id="{80FDB44A-C70B-4D41-8619-74119CBEEBDE}">
+            <xm:f>MATCH(L11,Reference!$C:$C,0)&gt;0</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6840,11 +7129,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L10</xm:sqref>
+          <xm:sqref>L11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{391DC8AE-16EC-4673-9A1E-547B386AB747}">
-            <xm:f>MATCH(L16,Reference!$C:$C,0)&gt;0</xm:f>
+          <x14:cfRule type="expression" priority="12" id="{391DC8AE-16EC-4673-9A1E-547B386AB747}">
+            <xm:f>MATCH(L19,Reference!$C:$C,0)&gt;0</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6853,7 +7142,137 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L16</xm:sqref>
+          <xm:sqref>L19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{AFF3D4E7-277D-4C67-8836-0844B81BF68D}">
+            <xm:f>MATCH(D17,Reference!$C:$C,0)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="10" id="{618EEF36-344A-45D2-B5D0-09A352EC5B44}">
+            <xm:f>MATCH(L17,Reference!$C:$C,0)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" id="{D20E97A4-4179-4AFF-9634-92F35AEA3E6D}">
+            <xm:f>MATCH(D25,Reference!$C:$C,0)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{1BC83A6C-54F4-40C9-BD76-24166F37778A}">
+            <xm:f>MATCH(D5,Reference!$C:$C,0)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="6" id="{37F3E2FE-CF23-49AD-A6FA-552D02A96A6E}">
+            <xm:f>MATCH(L5,Reference!$C:$C,0)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{12A66D23-AB37-4DFA-A010-7647B82DF50D}">
+            <xm:f>MATCH(D13,Reference!$C:$C,0)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{60632FA3-F61D-48FD-A08C-9CBB76DCD808}">
+            <xm:f>MATCH(L13,Reference!$C:$C,0)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{C3B337F6-CF2E-4F8A-A2BB-0013BA36CBD2}">
+            <xm:f>MATCH(D21,Reference!$C:$C,0)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{B914E4AA-114D-4367-8C90-4A8443674AA4}">
+            <xm:f>MATCH(L21,Reference!$C:$C,0)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{C8743049-DE77-4978-ADA2-A3A959644DFB}">
+            <xm:f>MATCH(L25,Reference!$C:$C,0)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6867,7 +7286,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6885,12 +7304,12 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6901,7 +7320,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6912,18 +7331,18 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6934,7 +7353,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6942,5452 +7361,5452 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C292" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C293" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C294" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C295" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C296" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C298" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C299" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C300" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C301" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C302" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C304" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C305" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C306" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C307" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C308" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C309" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C310" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C311" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C312" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C313" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C314" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C315" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C316" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C317" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C318" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C319" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C320" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C321" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C322" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C323" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C324" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C325" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C326" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C327" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C328" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C329" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C330" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C331" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C332" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C333" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C334" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C335" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C336" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C337" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C338" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C339" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C340" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C341" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C342" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C343" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C344" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C348" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C349" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C350" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C352" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C354" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C356" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C358" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C360" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C362" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C363" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C364" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C366" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C368" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C370" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C372" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C374" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C376" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C377" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C378" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C379" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C380" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C381" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C382" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C383" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C384" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C385" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C386" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C387" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C388" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C389" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C390" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C391" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C392" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C393" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C394" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C395" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C396" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C397" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C398" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C399" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C400" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C401" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C402" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C403" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C404" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C405" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C406" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C407" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C408" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C409" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C410" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C411" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C412" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C413" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C414" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C415" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C416" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C418" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C420" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C421" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C422" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C423" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C424" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C425" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C426" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C427" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C428" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C429" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C430" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C431" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C432" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C433" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C434" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C435" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C436" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C437" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C438" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C439" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C440" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C441" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C442" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C443" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C444" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C445" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C446" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C447" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C448" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C449" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C450" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C452" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C454" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C456" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C458" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C459" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C460" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C461" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C462" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C463" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C465" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C466" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C467" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C468" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C469" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C470" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C471" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C472" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C473" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C474" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C475" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C476" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C477" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C478" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C479" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C480" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C481" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C482" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C483" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C484" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C485" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C486" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C487" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C488" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C489" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C490" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C491" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C492" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C493" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C494" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C495" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C496" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C497" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C498" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C499" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C500" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C501" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C502" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C503" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C504" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C505" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C506" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C507" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C508" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C509" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C510" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C511" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C512" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C513" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C514" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C515" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C516" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C517" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C518" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C519" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C520" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C521" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C522" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C523" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C524" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C525" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C526" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C527" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C528" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="529" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C529" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="530" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C530" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="531" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C531" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="532" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C532" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="533" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C533" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="534" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C534" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="535" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C535" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="536" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C536" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="537" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C537" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="538" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C538" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="539" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C539" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="540" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C540" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="541" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C541" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="542" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C542" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="543" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C543" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="544" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C544" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="545" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C545" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="546" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C546" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="547" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C547" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="548" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C548" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="549" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C549" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="550" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C550" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="551" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C551" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="552" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C552" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="553" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C553" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="554" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C554" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="555" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C555" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="556" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C556" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="557" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C557" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="558" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C558" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="559" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C559" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="560" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C560" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="561" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C561" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="562" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C562" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="563" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C563" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="564" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C564" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="565" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C565" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="566" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C566" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="567" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C567" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="568" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C568" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="569" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C569" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="570" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C570" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="571" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C571" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="572" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C572" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="573" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C573" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C574" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="575" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C575" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="576" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C576" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="577" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C577" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="578" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C578" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="579" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C579" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="580" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C580" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="581" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C581" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="582" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C582" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="583" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C583" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="584" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C584" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="585" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C585" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="586" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C586" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="587" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C587" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="588" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C588" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="589" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C589" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="590" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C590" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="591" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C591" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="592" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C592" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="593" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C593" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="594" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C594" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="595" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C595" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="596" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C596" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="597" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C597" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="598" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C598" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="599" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C599" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="600" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C600" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="601" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C601" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="602" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C602" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="603" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C603" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="604" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C604" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="605" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C605" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="606" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C606" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="607" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C607" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="608" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C608" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="609" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C609" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="610" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C610" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="611" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C611" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="612" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C612" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="613" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C613" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="614" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C614" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="615" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C615" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="616" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C616" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="617" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C617" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="618" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C618" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="619" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C619" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="620" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C620" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="621" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C621" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="622" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C622" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="623" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C623" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="624" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C624" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="625" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C625" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="626" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C626" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="627" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C627" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="628" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C628" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="629" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C629" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="630" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C630" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="631" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C631" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="632" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C632" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="633" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C633" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="634" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C634" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="635" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C635" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="636" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C636" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="637" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C637" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="638" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C638" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="639" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C639" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="640" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C640" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="641" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C641" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="642" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C642" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="643" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C643" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="644" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C644" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="645" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C645" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="646" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C646" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="647" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C647" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="648" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C648" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="649" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C649" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="650" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C650" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="651" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C651" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="652" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C652" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="653" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C653" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="654" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C654" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="655" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C655" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="656" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C656" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="657" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C657" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="658" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C658" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="659" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C659" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="660" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C660" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="661" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C661" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="662" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C662" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="663" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C663" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="664" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C664" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="665" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C665" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="666" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C666" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="667" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C667" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="668" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C668" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="669" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C669" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="670" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C670" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="671" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C671" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="672" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C672" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="673" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C673" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="674" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C674" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="675" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C675" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="676" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C676" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="677" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C677" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="678" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C678" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="679" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C679" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="680" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C680" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="681" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C681" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="682" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C682" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="683" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C683" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="684" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C684" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="685" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C685" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="686" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C686" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="687" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C687" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="688" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C688" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="689" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C689" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="690" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C690" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="691" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C691" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="692" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C692" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="693" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C693" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="694" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C694" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="695" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C695" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="696" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C696" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="697" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C697" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="698" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C698" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="699" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C699" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="700" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C700" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="701" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C701" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="702" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C702" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="703" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C703" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="704" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C704" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="705" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C705" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="706" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C706" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="707" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C707" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="708" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C708" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="709" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C709" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="710" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C710" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="711" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C711" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="712" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C712" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="713" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C713" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="714" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C714" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="715" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C715" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="716" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C716" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="717" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C717" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="718" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C718" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="719" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C719" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="720" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C720" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="721" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C721" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="722" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C722" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="723" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C723" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="724" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C724" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="725" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C725" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="726" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C726" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="727" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C727" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="728" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C728" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="729" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C729" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="730" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C730" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="731" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C731" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="732" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C732" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="733" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C733" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="734" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C734" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="735" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C735" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="736" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C736" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="737" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C737" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="738" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C738" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="739" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C739" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="740" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C740" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="741" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C741" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="742" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C742" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="743" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C743" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="744" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C744" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="745" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C745" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="746" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C746" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="747" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C747" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="748" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C748" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="749" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C749" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="750" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C750" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="751" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C751" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="752" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C752" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="753" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C753" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="754" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C754" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="755" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C755" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="756" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C756" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="757" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C757" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="758" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C758" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="759" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C759" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="760" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C760" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="761" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C761" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="762" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C762" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="763" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C763" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="764" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C764" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="765" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C765" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="766" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C766" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="767" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C767" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="768" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C768" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="769" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C769" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="770" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C770" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="771" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C771" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="772" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C772" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="773" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C773" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="774" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C774" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="775" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C775" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="776" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C776" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="777" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C777" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="778" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C778" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="779" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C779" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="780" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C780" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="781" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C781" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="782" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C782" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="783" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C783" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="784" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C784" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="785" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C785" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="786" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C786" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="787" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C787" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="788" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C788" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="789" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C789" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="790" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C790" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="791" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C791" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="792" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C792" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="793" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C793" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="794" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C794" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="795" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C795" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="796" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C796" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="797" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C797" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="798" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C798" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="799" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C799" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="800" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C800" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="801" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C801" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="802" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C802" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="803" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C803" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="804" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C804" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="805" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C805" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="806" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C806" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="807" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C807" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="808" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C808" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="809" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C809" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="810" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C810" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="811" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C811" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="812" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C812" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="813" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C813" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="814" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C814" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="815" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C815" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="816" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C816" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="817" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C817" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="818" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C818" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="819" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C819" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="820" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C820" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="821" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C821" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="822" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C822" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="823" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C823" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="824" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C824" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="825" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C825" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="826" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C826" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="827" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C827" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="828" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C828" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="829" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C829" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="830" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C830" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="831" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C831" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="832" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C832" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="833" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C833" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="834" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C834" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="835" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C835" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="836" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C836" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="837" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C837" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="838" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C838" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="839" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C839" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="840" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C840" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="841" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C841" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="842" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C842" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="843" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C843" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="844" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C844" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="845" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C845" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="846" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C846" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="847" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C847" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="848" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C848" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="849" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C849" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="850" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C850" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="851" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C851" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="852" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C852" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="853" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C853" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="854" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C854" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="855" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C855" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="856" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C856" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="857" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C857" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="858" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C858" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="859" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C859" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="860" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C860" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="861" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C861" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="862" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C862" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="863" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C863" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="864" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C864" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="865" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C865" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="866" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C866" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="867" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C867" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="868" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C868" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="869" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C869" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="870" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C870" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="871" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C871" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="872" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C872" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="873" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C873" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="874" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C874" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="875" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C875" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="876" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C876" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="877" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C877" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="878" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C878" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="879" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C879" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="880" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C880" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="881" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C881" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="882" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C882" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="883" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C883" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="884" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C884" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="885" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C885" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="886" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C886" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="887" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C887" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="888" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C888" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="889" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C889" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="890" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C890" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="891" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C891" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="892" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C892" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="893" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C893" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="894" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C894" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="895" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C895" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="896" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C896" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="897" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C897" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="898" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C898" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="899" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C899" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="900" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C900" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="901" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C901" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="902" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C902" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="903" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C903" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="904" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C904" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="905" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C905" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="906" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C906" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="907" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C907" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="908" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C908" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="909" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C909" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="910" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C910" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="911" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C911" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="912" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C912" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="913" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C913" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="914" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C914" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="915" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C915" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="916" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C916" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="917" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C917" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="918" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C918" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="919" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C919" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="920" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C920" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="921" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C921" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="922" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C922" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="923" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C923" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="924" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C924" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="925" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C925" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="926" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C926" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="927" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C927" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="928" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C928" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="929" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C929" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="930" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C930" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="931" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C931" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="932" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C932" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="933" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C933" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="934" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C934" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="935" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C935" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="936" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C936" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="937" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C937" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="938" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C938" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="939" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C939" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="940" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C940" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="941" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C941" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="942" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C942" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="943" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C943" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="944" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C944" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="945" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C945" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="946" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C946" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="947" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C947" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="948" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C948" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="949" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C949" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="950" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C950" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="951" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C951" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="952" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C952" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="953" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C953" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="954" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C954" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="955" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C955" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="956" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C956" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="957" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C957" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="958" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C958" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="959" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C959" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="960" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C960" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="961" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C961" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="962" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C962" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="963" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C963" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="964" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C964" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="965" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C965" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="966" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C966" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="967" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C967" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="968" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C968" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="969" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C969" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="970" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C970" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="971" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C971" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="972" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C972" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="973" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C973" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="974" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C974" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="975" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C975" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="976" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C976" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="977" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C977" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="978" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C978" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="979" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C979" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="980" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C980" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="981" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C981" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="982" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C982" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="983" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C983" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="984" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C984" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="985" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C985" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="986" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C986" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="987" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C987" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="988" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C988" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="989" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C989" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="990" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C990" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="991" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C991" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="992" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C992" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="993" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C993" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="994" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C994" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="995" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C995" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="996" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C996" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="997" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C997" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="998" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C998" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="999" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C999" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1000" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1000" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1001" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1001" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1002" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1002" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1003" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1003" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1004" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1004" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1005" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1005" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1006" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1006" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1007" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1007" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1008" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1008" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1009" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1009" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1010" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1010" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1011" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1011" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1012" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1012" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1013" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1013" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1014" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1014" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1015" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1015" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1016" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1016" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1017" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1017" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1018" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1018" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1019" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1019" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1020" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1020" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1021" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1021" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1022" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1022" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1023" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1023" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1024" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1024" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1025" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1025" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1026" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1026" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1027" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1027" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1028" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1028" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1029" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1029" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1030" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1030" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1031" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1031" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1032" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1032" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1033" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1033" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1034" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1034" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1035" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1035" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1036" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1036" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1037" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1037" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1038" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1038" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1039" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1039" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1040" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1040" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1041" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1041" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1042" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1042" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1043" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1043" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1044" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1044" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1045" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1045" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1046" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1046" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1047" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1047" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1048" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1048" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1049" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1049" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1050" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1050" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1051" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1051" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1052" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1052" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1053" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1053" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1054" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1054" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1055" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1055" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1056" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1056" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1057" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1057" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1058" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1058" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1059" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1059" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1060" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1060" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1061" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1061" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1062" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1062" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1063" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1063" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1064" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1064" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1065" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1065" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1066" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1066" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1067" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1067" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1068" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1068" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1069" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1069" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1070" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1070" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1071" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1071" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1072" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1072" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1073" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1073" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1074" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1074" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1075" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1075" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1076" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1076" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1077" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1077" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1078" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1078" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1079" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1079" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1080" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1080" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1081" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1081" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1082" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1082" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1083" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1083" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1084" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1084" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1085" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1085" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1086" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1086" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1087" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1087" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1088" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1088" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1089" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1089" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1090" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1090" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1091" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1091" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1092" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1092" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1093" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1093" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1094" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1094" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1095" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1095" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1096" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1096" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1097" spans="3:3" x14ac:dyDescent="0.25">
@@ -12402,167 +12821,167 @@
     </row>
     <row r="1099" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1099" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1100" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1101" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1102" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1103" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1104" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1105" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1106" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1107" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1108" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1109" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1110" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1111" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1112" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1113" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1114" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1115" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1116" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1117" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1118" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1119" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1120" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1121" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1122" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1123" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1124" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1125" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1126" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1127" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1128" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1129" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1130" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1131" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
